--- a/后端/res_file/spide_data/游戏/2025032712/游戏_巫师3/BV11SoeYdEWJ_𝟒𝒌 𝑯𝑫𝑹 杜比视界巫师3次世代E3极致光追全网最强画质混剪_2025032712.xlsx
+++ b/后端/res_file/spide_data/游戏/2025032712/游戏_巫师3/BV11SoeYdEWJ_𝟒𝒌 𝑯𝑫𝑹 杜比视界巫师3次世代E3极致光追全网最强画质混剪_2025032712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>bvid</t>
   </si>
@@ -46,15 +46,18 @@
     <t>time</t>
   </si>
   <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>BV11SoeYdEWJ</t>
   </si>
   <si>
-    <t>263027787</t>
-  </si>
-  <si>
     <t>永远是深夜那该多好</t>
   </si>
   <si>
+    <t>闷头就睡x</t>
+  </si>
+  <si>
     <t>男</t>
   </si>
   <si>
@@ -64,27 +67,32 @@
     <t>滤镜？</t>
   </si>
   <si>
+    <t>这质感？感觉换了游戏</t>
+  </si>
+  <si>
     <t>2025-03-27 08:04:09</t>
   </si>
   <si>
-    <t>1773391213</t>
-  </si>
-  <si>
-    <t>闷头就睡x</t>
-  </si>
-  <si>
-    <t>这质感？感觉换了游戏</t>
-  </si>
-  <si>
     <t>2025-03-27 01:45:58</t>
+  </si>
+  <si>
+    <t>消极</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,12 +116,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,105 +434,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>257974472481</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>263027787</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>258782848512</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>1773391213</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
